--- a/HerrEC_scale_new.xlsx
+++ b/HerrEC_scale_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelpeirosignes/Desktop/herr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B55A88A-A76B-874E-9EFF-3C68F61E5E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268CB94-B546-794C-A7A0-7FBFC9B494F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="4980" windowWidth="28800" windowHeight="16340" xr2:uid="{1D8BDB6D-2CC6-FC4F-957D-3632EE31E1BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
   <si>
     <t>Bajo</t>
   </si>
@@ -69,9 +69,6 @@
     <t>EI</t>
   </si>
   <si>
-    <t>E1B</t>
-  </si>
-  <si>
     <t>ABP</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>Certificación Energética Instalaciones</t>
   </si>
   <si>
-    <t>E2B</t>
-  </si>
-  <si>
-    <t>E61</t>
-  </si>
-  <si>
     <t>Dimension</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>A2B3</t>
   </si>
   <si>
-    <t>linealizar escala</t>
-  </si>
-  <si>
     <t>Residuos valorizados</t>
   </si>
   <si>
@@ -256,6 +244,30 @@
   </si>
   <si>
     <t>Compromiso circular de proveedores</t>
+  </si>
+  <si>
+    <t>E1B2</t>
+  </si>
+  <si>
+    <t>Consumo energético huella de carbono hab</t>
+  </si>
+  <si>
+    <t>E1B3</t>
+  </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>Consumo energético por hab</t>
+  </si>
+  <si>
+    <t>hab ocu</t>
+  </si>
+  <si>
+    <t>Consumo energético huella de carbono m2</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -338,13 +350,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,24 +679,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551EE6EC-DA8E-9E48-A1BD-9431E13AD1BB}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -688,31 +704,40 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -735,25 +760,40 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1">
-        <f>IF(H2="",0,VLOOKUP(H2,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H2="",0,VLOOKUP(H2,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K2" s="1">
-        <f>IF(I2="",0,VLOOKUP(I2,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I2="",0,VLOOKUP(I2,$W$2:$X$28,2,FALSE))</f>
         <v>0.2</v>
       </c>
       <c r="L2" s="1">
         <f>J2*K2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="5">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -776,25 +816,40 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1">
-        <f>IF(H3="",0,VLOOKUP(H3,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H3="",0,VLOOKUP(H3,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K3" s="1">
-        <f>IF(I3="",0,VLOOKUP(I3,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I3="",0,VLOOKUP(I3,$W$2:$X$28,2,FALSE))</f>
         <v>0.05</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L32" si="0">J3*K3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="T3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3">
+        <v>0.05</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -816,26 +871,41 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>72</v>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
       </c>
       <c r="J4" s="1">
-        <f>IF(H4="",0,VLOOKUP(H4,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H4="",0,VLOOKUP(H4,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K4" s="1">
-        <f>IF(I4="",0,VLOOKUP(I4,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I4="",0,VLOOKUP(I4,$W$2:$X$28,2,FALSE))</f>
         <v>0.05</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="T4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5">
+        <v>20</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4">
+        <v>0.05</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -858,25 +928,40 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1">
-        <f>IF(H5="",0,VLOOKUP(H5,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H5="",0,VLOOKUP(H5,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K5" s="1">
-        <f>IF(I5="",0,VLOOKUP(I5,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I5="",0,VLOOKUP(I5,$W$2:$X$28,2,FALSE))</f>
         <v>0.05</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="T5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="5">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5">
+        <v>0.7</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -902,95 +987,166 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1">
-        <f>IF(H6="",0,VLOOKUP(H6,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H6="",0,VLOOKUP(H6,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K6" s="1">
-        <f>IF(I6="",0,VLOOKUP(I6,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I6="",0,VLOOKUP(I6,$W$2:$X$28,2,FALSE))</f>
         <v>0.7</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="5">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <f>(C7-D7)+C7</f>
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.5</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1">
-        <f>IF(H7="",0,VLOOKUP(H7,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H7="",0,VLOOKUP(H7,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K7" s="1">
-        <f>IF(I7="",0,VLOOKUP(I7,subdimensiones!$A$2:$B$38,2,FALSE))</f>
-        <v>0.15</v>
+        <f>IF(I7="",0,VLOOKUP(I7,$W$2:$X$28,2,FALSE))</f>
+        <v>0.1</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>0.05</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="6">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6">
+        <v>25</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1">
-        <f>IF(H8="",0,VLOOKUP(H8,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H8="",0,VLOOKUP(H8,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K8" s="1">
-        <f>IF(I8="",0,VLOOKUP(I8,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I8="",0,VLOOKUP(I8,$W$2:$X$28,2,FALSE))</f>
         <v>0.1</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="8">
+        <f>SUM(U2:U6)</f>
+        <v>100</v>
+      </c>
+      <c r="W8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1011,25 +1167,34 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1">
-        <f>IF(H9="",0,VLOOKUP(H9,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H9="",0,VLOOKUP(H9,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K9" s="1">
-        <f>IF(I9="",0,VLOOKUP(I9,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I9="",0,VLOOKUP(I9,$W$2:$X$28,2,FALSE))</f>
         <v>0.1</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1052,164 +1217,196 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1">
-        <f>IF(H10="",0,VLOOKUP(H10,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H10="",0,VLOOKUP(H10,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K10" s="1">
-        <f>IF(I10="",0,VLOOKUP(I10,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I10="",0,VLOOKUP(I10,$W$2:$X$28,2,FALSE))</f>
         <v>0.1</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>7.5</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
       <c r="E11">
-        <v>80</v>
+        <v>22.5</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1">
-        <f>IF(H11="",0,VLOOKUP(H11,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H11="",0,VLOOKUP(H11,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K11" s="1">
-        <f>IF(I11="",0,VLOOKUP(I11,subdimensiones!$A$2:$B$38,2,FALSE))</f>
-        <v>0.05</v>
+        <f>IF(I11="",0,VLOOKUP(I11,$W$2:$X$28,2,FALSE))</f>
+        <v>0.1</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11">
+        <v>0.1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <f>(C12-D12)+C12</f>
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <f>E12-(D12-E12)</f>
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1">
-        <f>IF(H12="",0,VLOOKUP(H12,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H12="",0,VLOOKUP(H12,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K12" s="1">
-        <f>IF(I12="",0,VLOOKUP(I12,subdimensiones!$A$2:$B$38,2,FALSE))</f>
-        <v>0.15</v>
+        <f>IF(I12="",0,VLOOKUP(I12,$W$2:$X$28,2,FALSE))</f>
+        <v>0.1</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12">
+        <v>0.05</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>330</v>
+      </c>
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13">
+        <v>230</v>
+      </c>
+      <c r="E13">
+        <v>180</v>
+      </c>
+      <c r="F13">
+        <v>130</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1">
+        <f>IF(H13="",0,VLOOKUP(H13,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K13" s="1">
+        <f>IF(I13="",0,VLOOKUP(I13,$W$2:$X$28,2,FALSE))</f>
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="B13">
-        <f>(C13-D13)+C13</f>
-        <v>270</v>
-      </c>
-      <c r="C13">
-        <v>220</v>
-      </c>
-      <c r="D13">
-        <v>170</v>
-      </c>
-      <c r="E13">
-        <v>135</v>
-      </c>
-      <c r="F13">
-        <f>E13-(D13-E13)</f>
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="1">
-        <f>IF(H13="",0,VLOOKUP(H13,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="1">
-        <f>IF(I13="",0,VLOOKUP(I13,subdimensiones!$A$2:$B$38,2,FALSE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13" si="1">J13*K13</f>
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13">
+        <v>0.4</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1235,27 +1432,36 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1">
-        <f>IF(H14="",0,VLOOKUP(H14,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H14="",0,VLOOKUP(H14,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K14" s="1">
-        <f>IF(I14="",0,VLOOKUP(I14,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I14="",0,VLOOKUP(I14,$W$2:$X$28,2,FALSE))</f>
         <v>0.4</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1276,27 +1482,36 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1">
-        <f>IF(H15="",0,VLOOKUP(H15,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H15="",0,VLOOKUP(H15,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K15" s="1">
-        <f>IF(I15="",0,VLOOKUP(I15,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I15="",0,VLOOKUP(I15,$W$2:$X$28,2,FALSE))</f>
         <v>0.2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15">
+        <v>0.3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <f>(C16-D16)+C16</f>
@@ -1319,17 +1534,17 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1">
-        <f>IF(H16="",0,VLOOKUP(H16,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H16="",0,VLOOKUP(H16,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K16" s="1" t="e">
-        <f>IF(I16="",0,VLOOKUP(I16,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I16="",0,VLOOKUP(I16,$W$2:$X$28,2,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="1" t="e">
@@ -1337,65 +1552,81 @@
         <v>#N/A</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16">
+        <v>0.1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <f>(C17-D17)+C17</f>
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="C17">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D17">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E17">
         <v>340</v>
       </c>
       <c r="F17">
         <f>E17-(D17-E17)</f>
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1">
-        <f>IF(H17="",0,VLOOKUP(H17,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H17="",0,VLOOKUP(H17,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K17" s="1">
-        <f>IF(I17="",0,VLOOKUP(I17,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I17="",0,VLOOKUP(I17,$W$2:$X$28,2,FALSE))</f>
         <v>0.3</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17" si="2">J17*K17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17">
+        <v>0.4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <f>(C18-D18)+C18</f>
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="C18">
         <v>2650</v>
@@ -1404,43 +1635,51 @@
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>1430</v>
+        <v>1400</v>
       </c>
       <c r="F18">
-        <f>E18-(D18-E18)</f>
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1">
-        <f>IF(H18="",0,VLOOKUP(H18,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H18="",0,VLOOKUP(H18,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K18" s="1">
-        <f>IF(I18="",0,VLOOKUP(I18,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I18="",0,VLOOKUP(I18,$W$2:$X$28,2,FALSE))</f>
         <v>0.1</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18" si="3">J18*K18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1461,27 +1700,36 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1">
-        <f>IF(H19="",0,VLOOKUP(H19,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H19="",0,VLOOKUP(H19,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K19" s="1">
-        <f>IF(I19="",0,VLOOKUP(I19,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I19="",0,VLOOKUP(I19,$W$2:$X$28,2,FALSE))</f>
         <v>0.3</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" ref="L19" si="4">J19*K19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19">
+        <v>0.1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1505,27 +1753,36 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1">
-        <f>IF(H20="",0,VLOOKUP(H20,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H20="",0,VLOOKUP(H20,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K20" s="1">
-        <f>IF(I20="",0,VLOOKUP(I20,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I20="",0,VLOOKUP(I20,$W$2:$X$28,2,FALSE))</f>
         <v>0.4</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20">
+        <v>0.4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1546,27 +1803,36 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1">
+        <f>IF(H21="",0,VLOOKUP(H21,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K21" s="1">
+        <f>IF(I21="",0,VLOOKUP(I21,$W$2:$X$28,2,FALSE))</f>
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W21" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21">
+        <v>0.2</v>
+      </c>
+      <c r="Y21" t="s">
         <v>33</v>
       </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="1">
-        <f>IF(H21="",0,VLOOKUP(H21,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K21" s="1">
-        <f>IF(I21="",0,VLOOKUP(I21,subdimensiones!$A$2:$B$38,2,FALSE))</f>
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" ref="L21" si="5">J21*K21</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1587,27 +1853,36 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1">
-        <f>IF(H22="",0,VLOOKUP(H22,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H22="",0,VLOOKUP(H22,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K22" s="1">
-        <f>IF(I22="",0,VLOOKUP(I22,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I22="",0,VLOOKUP(I22,$W$2:$X$28,2,FALSE))</f>
         <v>0.1</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>66</v>
+      </c>
+      <c r="X22">
+        <v>0.2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1631,27 +1906,36 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1">
-        <f>IF(H23="",0,VLOOKUP(H23,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H23="",0,VLOOKUP(H23,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K23" s="1">
-        <f>IF(I23="",0,VLOOKUP(I23,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I23="",0,VLOOKUP(I23,$W$2:$X$28,2,FALSE))</f>
         <v>0.4</v>
       </c>
       <c r="L23" s="1">
         <f>J23*K23</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>42</v>
+      </c>
+      <c r="X23">
+        <v>0.6</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1672,27 +1956,34 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J24" s="1">
-        <f>IF(H24="",0,VLOOKUP(H24,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H24="",0,VLOOKUP(H24,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K24" s="1">
-        <f>IF(I24="",0,VLOOKUP(I24,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I24="",0,VLOOKUP(I24,$W$2:$X$28,2,FALSE))</f>
         <v>0.2</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="4">
+        <f>X2+X3+X4+X5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1713,27 +2004,34 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1">
-        <f>IF(H25="",0,VLOOKUP(H25,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H25="",0,VLOOKUP(H25,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K25" s="1">
-        <f>IF(I25="",0,VLOOKUP(I25,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I25="",0,VLOOKUP(I25,$W$2:$X$28,2,FALSE))</f>
         <v>0.2</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" s="4">
+        <f>SUM(X6:X13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1757,27 +2055,34 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1">
-        <f>IF(H26="",0,VLOOKUP(H26,dimensiones!$A$2:$B$6,2,FALSE))</f>
+        <f>IF(H26="",0,VLOOKUP(H26,$T$2:$U$8,2,FALSE))</f>
         <v>20</v>
       </c>
       <c r="K26" s="1">
-        <f>IF(I26="",0,VLOOKUP(I26,subdimensiones!$A$2:$B$38,2,FALSE))</f>
+        <f>IF(I26="",0,VLOOKUP(I26,$W$2:$X$28,2,FALSE))</f>
         <v>0.6</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="4">
+        <f>X14+X15+X16+X17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1795,30 +2100,38 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <f>dimensiones!B2</f>
+        <f>U2</f>
         <v>20</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1">
-        <f>IF(H27="",0,VLOOKUP(H27,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K27">
+        <f>IF(H27="",0,VLOOKUP(H27,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K27" s="1">
+        <f>IF(H27="",0,VLOOKUP(H27,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="4">
+        <f>X18+X19+X20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1836,30 +2149,38 @@
         <v>15</v>
       </c>
       <c r="F28">
-        <f>dimensiones!B3</f>
+        <f>U3</f>
         <v>20</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1">
-        <f>IF(H28="",0,VLOOKUP(H28,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K28">
+        <f>IF(H28="",0,VLOOKUP(H28,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <f>IF(H28="",0,VLOOKUP(H28,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="4">
+        <f>X21+X22+X23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1877,30 +2198,37 @@
         <v>15</v>
       </c>
       <c r="F29">
-        <f>dimensiones!B4</f>
+        <f>U4</f>
         <v>20</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1">
-        <f>IF(H29="",0,VLOOKUP(H29,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K29">
+        <f>IF(H29="",0,VLOOKUP(H29,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K29" s="1">
+        <f>IF(H29="",0,VLOOKUP(H29,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1918,20 +2246,21 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>dimensiones!B5</f>
+        <f>U5</f>
         <v>20</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1">
-        <f>IF(H30="",0,VLOOKUP(H30,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K30">
+        <f>IF(H30="",0,VLOOKUP(H30,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K30" s="1">
+        <f>IF(H30="",0,VLOOKUP(H30,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L30" s="1">
@@ -1939,9 +2268,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1959,20 +2288,21 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <f>dimensiones!B6</f>
+        <f>U6</f>
         <v>20</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1">
-        <f>IF(H31="",0,VLOOKUP(H31,dimensiones!$A$2:$B$6,2,FALSE))</f>
-        <v>20</v>
-      </c>
-      <c r="K31">
+        <f>IF(H31="",0,VLOOKUP(H31,$T$2:$U$8,2,FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K31" s="1">
+        <f>IF(H31="",0,VLOOKUP(H31,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L31" s="1">
@@ -1980,24 +2310,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:E32" si="6">B27+B28+B29+B30+B31</f>
+        <f t="shared" ref="B32:E32" si="1">B27+B28+B29+B30+B31</f>
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="F32">
@@ -2008,19 +2338,48 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32">
-        <f>100</f>
+        <v>67</v>
+      </c>
+      <c r="J32" s="1">
+        <f>IF(H32="",0,VLOOKUP(H32,$T$2:$U$8,2,FALSE))</f>
         <v>100</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
+        <f>IF(H32="",0,VLOOKUP(H32,$W$2:$X$29,2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2040,15 +2399,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2056,7 +2415,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -2064,7 +2423,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -2072,7 +2431,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2080,7 +2439,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -2097,7 +2456,7 @@
     </row>
     <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4">
         <f>B2+B3+B4+B5+B6</f>
@@ -2124,21 +2483,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4">
         <f>B2+B3+B5+B4</f>
@@ -2147,16 +2506,16 @@
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0.05</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(B6:B12)</f>
@@ -2165,16 +2524,16 @@
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0.05</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4">
         <f>B13+B14+B15+B16</f>
@@ -2183,16 +2542,16 @@
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4">
         <f>B17+B18+B19</f>
@@ -2201,16 +2560,16 @@
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4">
         <f>B20+B21+B22</f>
@@ -2219,178 +2578,178 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.05</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0.4</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0.2</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>0.4</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0.4</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>0.2</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>0.6</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
